--- a/Capstone/Field_Categorization.xlsx
+++ b/Capstone/Field_Categorization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nwalker/Documents/Personal/Capstone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13147B1C-8E94-BD46-ACAA-3DBEE24190B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4EBA0E5-1606-244F-B318-8849AE5D027D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3420" yWindow="2820" windowWidth="27640" windowHeight="16940" xr2:uid="{213FB112-D885-0E41-9B40-4BA59535FDA4}"/>
   </bookViews>
@@ -1973,12 +1973,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2022,7 +2022,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{845D2EF0-3AAC-694A-AB98-1845A381B03B}" name="Table1" displayName="Table1" ref="A1:E172" totalsRowShown="0">
-  <autoFilter ref="A1:E172" xr:uid="{2B050F04-AF93-1A45-82EA-1974F71AE6FB}"/>
+  <autoFilter ref="A1:E172" xr:uid="{2B050F04-AF93-1A45-82EA-1974F71AE6FB}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="F"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{0A43DFD2-871C-3345-A965-02F72D5D1729}" name="From DF" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{FD5DA188-5522-F043-9D39-5582E1AE80D6}" name="Column Header" dataDxfId="0"/>
@@ -2334,7 +2340,7 @@
   <dimension ref="A1:I178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="A29" sqref="A29:A117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2364,13 +2370,13 @@
       <c r="E1" t="s">
         <v>342</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="20" t="s">
         <v>578</v>
       </c>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-    </row>
-    <row r="2" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+    </row>
+    <row r="2" spans="1:9" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>385</v>
       </c>
@@ -2386,17 +2392,17 @@
       <c r="E2" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="18" t="s">
         <v>341</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="18" t="s">
         <v>565</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="18" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>386</v>
       </c>
@@ -2412,17 +2418,17 @@
       <c r="E3" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="18" t="s">
         <v>340</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="18" t="s">
         <v>566</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="18" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>387</v>
       </c>
@@ -2438,17 +2444,17 @@
       <c r="E4" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="G4" s="19" t="s">
-        <v>339</v>
-      </c>
-      <c r="H4" s="19" t="s">
+      <c r="G4" s="18" t="s">
+        <v>339</v>
+      </c>
+      <c r="H4" s="18" t="s">
         <v>567</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="18" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>388</v>
       </c>
@@ -2464,17 +2470,17 @@
       <c r="E5" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="18" t="s">
         <v>564</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="18" t="s">
         <v>573</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="I5" s="18" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>389</v>
       </c>
@@ -2490,17 +2496,17 @@
       <c r="E6" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="18" t="s">
         <v>557</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="H6" s="18" t="s">
         <v>575</v>
       </c>
-      <c r="I6" s="19" t="s">
+      <c r="I6" s="18" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>390</v>
       </c>
@@ -2516,17 +2522,17 @@
       <c r="E7" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="18" t="s">
         <v>558</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="H7" s="18" t="s">
         <v>576</v>
       </c>
-      <c r="I7" s="20" t="s">
+      <c r="I7" s="19" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>391</v>
       </c>
@@ -2542,15 +2548,15 @@
       <c r="E8" s="9" t="s">
         <v>345</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="18" t="s">
         <v>559</v>
       </c>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19" t="s">
+      <c r="H8" s="18"/>
+      <c r="I8" s="18" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>392</v>
       </c>
@@ -2566,17 +2572,17 @@
       <c r="E9" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="18" t="s">
         <v>563</v>
       </c>
-      <c r="H9" s="19" t="s">
+      <c r="H9" s="18" t="s">
         <v>568</v>
       </c>
-      <c r="I9" s="19" t="s">
+      <c r="I9" s="18" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>393</v>
       </c>
@@ -2592,17 +2598,17 @@
       <c r="E10" s="9" t="s">
         <v>346</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="18" t="s">
         <v>562</v>
       </c>
-      <c r="H10" s="19" t="s">
+      <c r="H10" s="18" t="s">
         <v>569</v>
       </c>
-      <c r="I10" s="19" t="s">
+      <c r="I10" s="18" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>394</v>
       </c>
@@ -2619,7 +2625,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>395</v>
       </c>
@@ -2636,7 +2642,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>396</v>
       </c>
@@ -2653,7 +2659,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>397</v>
       </c>
@@ -2670,7 +2676,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>398</v>
       </c>
@@ -2687,7 +2693,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="102" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>399</v>
       </c>
@@ -2704,7 +2710,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>400</v>
       </c>
@@ -2721,7 +2727,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>401</v>
       </c>
@@ -2738,7 +2744,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>402</v>
       </c>
@@ -2755,7 +2761,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>403</v>
       </c>
@@ -2772,7 +2778,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>404</v>
       </c>
@@ -2789,7 +2795,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>405</v>
       </c>
@@ -2806,7 +2812,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>406</v>
       </c>
@@ -2823,7 +2829,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>407</v>
       </c>
@@ -2840,7 +2846,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>408</v>
       </c>
@@ -2857,7 +2863,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>409</v>
       </c>
@@ -2874,7 +2880,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>410</v>
       </c>
@@ -2891,7 +2897,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>411</v>
       </c>
@@ -2976,7 +2982,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" s="6" customFormat="1" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>416</v>
       </c>
@@ -2987,7 +2993,7 @@
         <v>65</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>558</v>
+        <v>339</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>349</v>
@@ -3010,7 +3016,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>418</v>
       </c>
@@ -3027,7 +3033,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>419</v>
       </c>
@@ -3044,7 +3050,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>420</v>
       </c>
@@ -3061,7 +3067,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>421</v>
       </c>
@@ -3078,7 +3084,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>422</v>
       </c>
@@ -3095,7 +3101,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>423</v>
       </c>
@@ -3112,7 +3118,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>424</v>
       </c>
@@ -3123,13 +3129,13 @@
         <v>81</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>558</v>
+        <v>341</v>
       </c>
       <c r="E41" s="9" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>425</v>
       </c>
@@ -3146,7 +3152,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>426</v>
       </c>
@@ -3163,7 +3169,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>427</v>
       </c>
@@ -3180,7 +3186,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>428</v>
       </c>
@@ -3197,7 +3203,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>429</v>
       </c>
@@ -3214,7 +3220,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>430</v>
       </c>
@@ -3231,7 +3237,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="136" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" ht="136" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>431</v>
       </c>
@@ -3282,7 +3288,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>434</v>
       </c>
@@ -3316,7 +3322,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>436</v>
       </c>
@@ -3350,7 +3356,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>438</v>
       </c>
@@ -3367,7 +3373,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>439</v>
       </c>
@@ -3384,7 +3390,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>440</v>
       </c>
@@ -3401,7 +3407,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>441</v>
       </c>
@@ -3418,7 +3424,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>442</v>
       </c>
@@ -3435,7 +3441,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>443</v>
       </c>
@@ -3452,7 +3458,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>444</v>
       </c>
@@ -3469,7 +3475,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>445</v>
       </c>
@@ -3486,7 +3492,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>446</v>
       </c>
@@ -3503,7 +3509,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>447</v>
       </c>
@@ -3520,7 +3526,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>448</v>
       </c>
@@ -3537,7 +3543,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="153" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" ht="153" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>449</v>
       </c>
@@ -3554,7 +3560,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>450</v>
       </c>
@@ -3724,7 +3730,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>460</v>
       </c>
@@ -3735,13 +3741,13 @@
         <v>152</v>
       </c>
       <c r="D77" t="s">
-        <v>558</v>
+        <v>341</v>
       </c>
       <c r="E77" s="9" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>461</v>
       </c>
@@ -3752,13 +3758,13 @@
         <v>154</v>
       </c>
       <c r="D78" t="s">
-        <v>558</v>
+        <v>341</v>
       </c>
       <c r="E78" s="9" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="46" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" ht="46" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>462</v>
       </c>
@@ -3775,7 +3781,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>463</v>
       </c>
@@ -3792,7 +3798,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>464</v>
       </c>
@@ -3809,7 +3815,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>465</v>
       </c>
@@ -3826,7 +3832,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>466</v>
       </c>
@@ -3843,7 +3849,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>467</v>
       </c>
@@ -3860,7 +3866,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>468</v>
       </c>
@@ -3871,13 +3877,13 @@
         <v>166</v>
       </c>
       <c r="D85" t="s">
-        <v>559</v>
+        <v>341</v>
       </c>
       <c r="E85" s="9" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>469</v>
       </c>
@@ -3888,13 +3894,13 @@
         <v>168</v>
       </c>
       <c r="D86" t="s">
-        <v>559</v>
+        <v>339</v>
       </c>
       <c r="E86" s="9" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>470</v>
       </c>
@@ -3905,13 +3911,13 @@
         <v>170</v>
       </c>
       <c r="D87" t="s">
-        <v>559</v>
+        <v>339</v>
       </c>
       <c r="E87" s="9" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>471</v>
       </c>
@@ -3922,13 +3928,13 @@
         <v>172</v>
       </c>
       <c r="D88" t="s">
-        <v>559</v>
+        <v>339</v>
       </c>
       <c r="E88" s="9" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="221" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" ht="221" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>472</v>
       </c>
@@ -3939,13 +3945,13 @@
         <v>174</v>
       </c>
       <c r="D89" t="s">
-        <v>559</v>
+        <v>339</v>
       </c>
       <c r="E89" s="9" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>473</v>
       </c>
@@ -3956,13 +3962,13 @@
         <v>176</v>
       </c>
       <c r="D90" t="s">
-        <v>558</v>
+        <v>339</v>
       </c>
       <c r="E90" s="9" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>474</v>
       </c>
@@ -3973,13 +3979,13 @@
         <v>178</v>
       </c>
       <c r="D91" t="s">
-        <v>558</v>
+        <v>339</v>
       </c>
       <c r="E91" s="9" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>475</v>
       </c>
@@ -3990,13 +3996,13 @@
         <v>180</v>
       </c>
       <c r="D92" t="s">
-        <v>558</v>
+        <v>339</v>
       </c>
       <c r="E92" s="9" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>476</v>
       </c>
@@ -4007,13 +4013,13 @@
         <v>182</v>
       </c>
       <c r="D93" t="s">
-        <v>558</v>
+        <v>339</v>
       </c>
       <c r="E93" s="9" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>477</v>
       </c>
@@ -4024,13 +4030,13 @@
         <v>184</v>
       </c>
       <c r="D94" t="s">
-        <v>558</v>
+        <v>339</v>
       </c>
       <c r="E94" s="9" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>478</v>
       </c>
@@ -4041,13 +4047,13 @@
         <v>186</v>
       </c>
       <c r="D95" t="s">
-        <v>558</v>
+        <v>339</v>
       </c>
       <c r="E95" s="9" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="136" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" ht="136" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>479</v>
       </c>
@@ -4058,13 +4064,13 @@
         <v>188</v>
       </c>
       <c r="D96" t="s">
-        <v>558</v>
+        <v>339</v>
       </c>
       <c r="E96" s="9" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>480</v>
       </c>
@@ -4075,13 +4081,13 @@
         <v>190</v>
       </c>
       <c r="D97" t="s">
-        <v>558</v>
+        <v>339</v>
       </c>
       <c r="E97" s="9" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>481</v>
       </c>
@@ -4092,13 +4098,13 @@
         <v>192</v>
       </c>
       <c r="D98" t="s">
-        <v>558</v>
+        <v>339</v>
       </c>
       <c r="E98" s="9" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="221" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" ht="221" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>482</v>
       </c>
@@ -4109,13 +4115,13 @@
         <v>194</v>
       </c>
       <c r="D99" t="s">
-        <v>558</v>
+        <v>339</v>
       </c>
       <c r="E99" s="9" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="136" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" ht="136" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>483</v>
       </c>
@@ -4132,7 +4138,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>484</v>
       </c>
@@ -4143,13 +4149,13 @@
         <v>198</v>
       </c>
       <c r="D101" t="s">
-        <v>558</v>
+        <v>339</v>
       </c>
       <c r="E101" s="9" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>485</v>
       </c>
@@ -4160,13 +4166,13 @@
         <v>200</v>
       </c>
       <c r="D102" t="s">
-        <v>558</v>
+        <v>341</v>
       </c>
       <c r="E102" s="9" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="10" t="s">
         <v>486</v>
       </c>
@@ -4183,7 +4189,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>487</v>
       </c>
@@ -4194,13 +4200,13 @@
         <v>204</v>
       </c>
       <c r="D104" t="s">
-        <v>557</v>
+        <v>341</v>
       </c>
       <c r="E104" s="9" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>488</v>
       </c>
@@ -4217,7 +4223,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>489</v>
       </c>
@@ -4234,7 +4240,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>490</v>
       </c>
@@ -4245,13 +4251,13 @@
         <v>210</v>
       </c>
       <c r="D107" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E107" s="9" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="170" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" ht="170" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>491</v>
       </c>
@@ -4262,13 +4268,13 @@
         <v>212</v>
       </c>
       <c r="D108" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E108" s="9" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="170" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" ht="170" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>492</v>
       </c>
@@ -4279,13 +4285,13 @@
         <v>214</v>
       </c>
       <c r="D109" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E109" s="9" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="170" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" ht="170" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>493</v>
       </c>
@@ -4296,13 +4302,13 @@
         <v>216</v>
       </c>
       <c r="D110" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E110" s="9" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>494</v>
       </c>
@@ -4313,13 +4319,13 @@
         <v>218</v>
       </c>
       <c r="D111" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E111" s="9" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>495</v>
       </c>
@@ -4336,7 +4342,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>496</v>
       </c>
@@ -4347,13 +4353,13 @@
         <v>222</v>
       </c>
       <c r="D113" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E113" s="9" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>497</v>
       </c>
@@ -4364,13 +4370,13 @@
         <v>224</v>
       </c>
       <c r="D114" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E114" s="9" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="136" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" ht="136" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>498</v>
       </c>
@@ -4381,13 +4387,13 @@
         <v>226</v>
       </c>
       <c r="D115" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E115" s="9" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="136" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" ht="136" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>499</v>
       </c>
@@ -4398,7 +4404,7 @@
         <v>228</v>
       </c>
       <c r="D116" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E116" s="9" t="s">
         <v>349</v>
@@ -4421,7 +4427,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>501</v>
       </c>
@@ -4432,13 +4438,13 @@
         <v>232</v>
       </c>
       <c r="D118" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E118" s="9" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>502</v>
       </c>
@@ -4449,13 +4455,13 @@
         <v>234</v>
       </c>
       <c r="D119" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E119" s="9" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>503</v>
       </c>
@@ -4466,13 +4472,13 @@
         <v>236</v>
       </c>
       <c r="D120" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E120" s="9" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>504</v>
       </c>
@@ -4483,13 +4489,13 @@
         <v>238</v>
       </c>
       <c r="D121" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E121" s="9" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>505</v>
       </c>
@@ -4500,13 +4506,13 @@
         <v>240</v>
       </c>
       <c r="D122" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E122" s="9" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>506</v>
       </c>
@@ -4517,13 +4523,13 @@
         <v>242</v>
       </c>
       <c r="D123" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E123" s="9" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>507</v>
       </c>
@@ -4534,13 +4540,13 @@
         <v>244</v>
       </c>
       <c r="D124" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E124" s="9" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>508</v>
       </c>
@@ -4551,13 +4557,13 @@
         <v>246</v>
       </c>
       <c r="D125" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E125" s="9" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>509</v>
       </c>
@@ -4568,13 +4574,13 @@
         <v>248</v>
       </c>
       <c r="D126" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E126" s="9" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="136" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" ht="136" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>510</v>
       </c>
@@ -4585,13 +4591,13 @@
         <v>250</v>
       </c>
       <c r="D127" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E127" s="9" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="153" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5" ht="153" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>511</v>
       </c>
@@ -4602,13 +4608,13 @@
         <v>252</v>
       </c>
       <c r="D128" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E128" s="9" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>512</v>
       </c>
@@ -4619,13 +4625,13 @@
         <v>254</v>
       </c>
       <c r="D129" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E129" s="9" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>513</v>
       </c>
@@ -4636,13 +4642,13 @@
         <v>256</v>
       </c>
       <c r="D130" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E130" s="9" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>514</v>
       </c>
@@ -4659,7 +4665,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>515</v>
       </c>
@@ -4676,7 +4682,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="136" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5" ht="136" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>516</v>
       </c>
@@ -4687,13 +4693,13 @@
         <v>262</v>
       </c>
       <c r="D133" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E133" s="9" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>517</v>
       </c>
@@ -4704,13 +4710,13 @@
         <v>264</v>
       </c>
       <c r="D134" s="16" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E134" s="9" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>518</v>
       </c>
@@ -4727,7 +4733,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>519</v>
       </c>
@@ -4744,7 +4750,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>520</v>
       </c>
@@ -4761,7 +4767,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>521</v>
       </c>
@@ -4778,7 +4784,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>522</v>
       </c>
@@ -4795,7 +4801,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>523</v>
       </c>
@@ -4812,7 +4818,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>524</v>
       </c>
@@ -4829,7 +4835,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>525</v>
       </c>
@@ -4846,7 +4852,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="187" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:5" ht="187" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>526</v>
       </c>
@@ -4863,7 +4869,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>527</v>
       </c>
@@ -4880,7 +4886,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:5" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>528</v>
       </c>
@@ -4897,7 +4903,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:5" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>529</v>
       </c>
@@ -4914,7 +4920,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:5" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>530</v>
       </c>
@@ -4931,7 +4937,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:5" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>531</v>
       </c>
@@ -4948,7 +4954,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:5" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>532</v>
       </c>
@@ -4965,7 +4971,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="153" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:5" ht="153" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>533</v>
       </c>
@@ -4982,7 +4988,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="153" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:5" ht="153" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>534</v>
       </c>
@@ -4999,7 +5005,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:5" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>535</v>
       </c>
@@ -5016,7 +5022,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:5" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>536</v>
       </c>
@@ -5033,7 +5039,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:5" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>537</v>
       </c>
@@ -5050,7 +5056,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:5" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>538</v>
       </c>
@@ -5067,7 +5073,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="136" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:5" ht="136" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>539</v>
       </c>
@@ -5084,7 +5090,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:5" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>540</v>
       </c>
@@ -5101,7 +5107,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:5" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>541</v>
       </c>
@@ -5112,13 +5118,13 @@
         <v>312</v>
       </c>
       <c r="D158" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E158" s="9" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="136" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:5" ht="136" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>542</v>
       </c>
@@ -5135,7 +5141,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:5" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>543</v>
       </c>
@@ -5146,13 +5152,13 @@
         <v>316</v>
       </c>
       <c r="D160" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E160" s="9" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>544</v>
       </c>
@@ -5163,13 +5169,13 @@
         <v>318</v>
       </c>
       <c r="D161" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E161" s="9" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>545</v>
       </c>
@@ -5186,7 +5192,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>546</v>
       </c>
@@ -5203,7 +5209,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>547</v>
       </c>
@@ -5220,7 +5226,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>548</v>
       </c>
@@ -5237,7 +5243,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>549</v>
       </c>
@@ -5254,7 +5260,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>550</v>
       </c>
@@ -5271,7 +5277,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>551</v>
       </c>
@@ -5288,7 +5294,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>552</v>
       </c>
@@ -5302,7 +5308,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>553</v>
       </c>
@@ -5319,7 +5325,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>554</v>
       </c>
@@ -5336,7 +5342,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>555</v>
       </c>

--- a/Capstone/Field_Categorization.xlsx
+++ b/Capstone/Field_Categorization.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nwalker/Documents/Personal/Capstone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4EBA0E5-1606-244F-B318-8849AE5D027D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE30830-4A21-C244-B54F-6D281DCDF914}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="2820" windowWidth="27640" windowHeight="16940" xr2:uid="{213FB112-D885-0E41-9B40-4BA59535FDA4}"/>
+    <workbookView xWindow="4700" yWindow="2920" windowWidth="27640" windowHeight="16940" xr2:uid="{213FB112-D885-0E41-9B40-4BA59535FDA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2022,13 +2022,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{845D2EF0-3AAC-694A-AB98-1845A381B03B}" name="Table1" displayName="Table1" ref="A1:E172" totalsRowShown="0">
-  <autoFilter ref="A1:E172" xr:uid="{2B050F04-AF93-1A45-82EA-1974F71AE6FB}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="F"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:E172" xr:uid="{2B050F04-AF93-1A45-82EA-1974F71AE6FB}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{0A43DFD2-871C-3345-A965-02F72D5D1729}" name="From DF" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{FD5DA188-5522-F043-9D39-5582E1AE80D6}" name="Column Header" dataDxfId="0"/>
@@ -2339,8 +2333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05AE941F-11ED-8746-A2E3-E5EDEFB93DE4}">
   <dimension ref="A1:I178"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:A117"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2376,7 +2370,7 @@
       <c r="H1" s="20"/>
       <c r="I1" s="20"/>
     </row>
-    <row r="2" spans="1:9" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>385</v>
       </c>
@@ -2402,7 +2396,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>386</v>
       </c>
@@ -2428,7 +2422,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>387</v>
       </c>
@@ -2454,7 +2448,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>388</v>
       </c>
@@ -2480,7 +2474,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>389</v>
       </c>
@@ -2506,7 +2500,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>390</v>
       </c>
@@ -2532,7 +2526,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>391</v>
       </c>
@@ -2556,7 +2550,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>392</v>
       </c>
@@ -2582,7 +2576,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>393</v>
       </c>
@@ -2608,7 +2602,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>394</v>
       </c>
@@ -2625,7 +2619,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>395</v>
       </c>
@@ -2642,7 +2636,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>396</v>
       </c>
@@ -2659,7 +2653,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>397</v>
       </c>
@@ -2676,7 +2670,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>398</v>
       </c>
@@ -2693,7 +2687,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>399</v>
       </c>
@@ -2710,7 +2704,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>400</v>
       </c>
@@ -2727,7 +2721,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>401</v>
       </c>
@@ -2744,7 +2738,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>402</v>
       </c>
@@ -2761,7 +2755,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>403</v>
       </c>
@@ -2778,7 +2772,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>404</v>
       </c>
@@ -2795,7 +2789,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>405</v>
       </c>
@@ -2812,7 +2806,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>406</v>
       </c>
@@ -2829,7 +2823,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>407</v>
       </c>
@@ -2846,7 +2840,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>408</v>
       </c>
@@ -2863,7 +2857,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>409</v>
       </c>
@@ -2880,7 +2874,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>410</v>
       </c>
@@ -2897,7 +2891,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>411</v>
       </c>
@@ -2982,7 +2976,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="6" customFormat="1" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>416</v>
       </c>
@@ -3016,7 +3010,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>418</v>
       </c>
@@ -3033,7 +3027,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>419</v>
       </c>
@@ -3050,7 +3044,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>420</v>
       </c>
@@ -3067,7 +3061,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>421</v>
       </c>
@@ -3084,7 +3078,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>422</v>
       </c>
@@ -3101,7 +3095,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>423</v>
       </c>
@@ -3118,7 +3112,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>424</v>
       </c>
@@ -3129,13 +3123,13 @@
         <v>81</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>341</v>
+        <v>558</v>
       </c>
       <c r="E41" s="9" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>425</v>
       </c>
@@ -3152,7 +3146,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>426</v>
       </c>
@@ -3169,7 +3163,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>427</v>
       </c>
@@ -3186,7 +3180,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>428</v>
       </c>
@@ -3203,7 +3197,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>429</v>
       </c>
@@ -3220,7 +3214,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>430</v>
       </c>
@@ -3237,7 +3231,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" ht="136" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>431</v>
       </c>
@@ -3288,7 +3282,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>434</v>
       </c>
@@ -3322,7 +3316,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>436</v>
       </c>
@@ -3356,7 +3350,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>438</v>
       </c>
@@ -3373,7 +3367,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>439</v>
       </c>
@@ -3390,7 +3384,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>440</v>
       </c>
@@ -3407,7 +3401,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>441</v>
       </c>
@@ -3424,7 +3418,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>442</v>
       </c>
@@ -3441,7 +3435,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>443</v>
       </c>
@@ -3458,7 +3452,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>444</v>
       </c>
@@ -3475,7 +3469,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>445</v>
       </c>
@@ -3492,7 +3486,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>446</v>
       </c>
@@ -3509,7 +3503,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>447</v>
       </c>
@@ -3526,7 +3520,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>448</v>
       </c>
@@ -3543,7 +3537,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="153" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" ht="153" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>449</v>
       </c>
@@ -3560,7 +3554,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>450</v>
       </c>
@@ -3730,7 +3724,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>460</v>
       </c>
@@ -3747,7 +3741,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>461</v>
       </c>
@@ -3764,7 +3758,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="46" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" ht="46" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>462</v>
       </c>
@@ -3781,7 +3775,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>463</v>
       </c>
@@ -3798,7 +3792,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>464</v>
       </c>
@@ -3815,7 +3809,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>465</v>
       </c>
@@ -3832,7 +3826,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>466</v>
       </c>
@@ -3849,7 +3843,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>467</v>
       </c>
@@ -3866,7 +3860,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>468</v>
       </c>
@@ -3883,7 +3877,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>469</v>
       </c>
@@ -3900,7 +3894,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>470</v>
       </c>
@@ -3917,7 +3911,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>471</v>
       </c>
@@ -3934,7 +3928,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="221" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" ht="221" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>472</v>
       </c>
@@ -3951,7 +3945,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>473</v>
       </c>
@@ -3968,7 +3962,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>474</v>
       </c>
@@ -3985,7 +3979,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>475</v>
       </c>
@@ -4002,7 +3996,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>476</v>
       </c>
@@ -4019,7 +4013,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>477</v>
       </c>
@@ -4036,7 +4030,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>478</v>
       </c>
@@ -4053,7 +4047,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" ht="136" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>479</v>
       </c>
@@ -4070,7 +4064,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>480</v>
       </c>
@@ -4087,7 +4081,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>481</v>
       </c>
@@ -4104,7 +4098,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="221" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" ht="221" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>482</v>
       </c>
@@ -4121,7 +4115,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" ht="136" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>483</v>
       </c>
@@ -4138,7 +4132,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>484</v>
       </c>
@@ -4155,7 +4149,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>485</v>
       </c>
@@ -4172,7 +4166,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A103" s="10" t="s">
         <v>486</v>
       </c>
@@ -4189,7 +4183,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>487</v>
       </c>
@@ -4206,7 +4200,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>488</v>
       </c>
@@ -4223,7 +4217,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>489</v>
       </c>
@@ -4240,7 +4234,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>490</v>
       </c>
@@ -4257,7 +4251,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="170" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" ht="170" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>491</v>
       </c>
@@ -4274,7 +4268,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="170" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" ht="170" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>492</v>
       </c>
@@ -4291,7 +4285,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="170" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" ht="170" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>493</v>
       </c>
@@ -4308,7 +4302,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>494</v>
       </c>
@@ -4325,7 +4319,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>495</v>
       </c>
@@ -4342,7 +4336,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>496</v>
       </c>
@@ -4359,7 +4353,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>497</v>
       </c>
@@ -4376,7 +4370,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" ht="136" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>498</v>
       </c>
@@ -4393,7 +4387,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" ht="136" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>499</v>
       </c>
@@ -4427,7 +4421,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>501</v>
       </c>
@@ -4444,7 +4438,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>502</v>
       </c>
@@ -4461,7 +4455,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>503</v>
       </c>
@@ -4478,7 +4472,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>504</v>
       </c>
@@ -4495,7 +4489,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>505</v>
       </c>
@@ -4512,7 +4506,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>506</v>
       </c>
@@ -4529,7 +4523,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>507</v>
       </c>
@@ -4546,7 +4540,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>508</v>
       </c>
@@ -4563,7 +4557,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>509</v>
       </c>
@@ -4580,7 +4574,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" ht="136" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>510</v>
       </c>
@@ -4597,7 +4591,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="153" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5" ht="153" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>511</v>
       </c>
@@ -4614,7 +4608,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>512</v>
       </c>
@@ -4631,7 +4625,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>513</v>
       </c>
@@ -4648,7 +4642,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>514</v>
       </c>
@@ -4665,7 +4659,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>515</v>
       </c>
@@ -4682,7 +4676,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5" ht="136" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>516</v>
       </c>
@@ -4699,7 +4693,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>517</v>
       </c>
@@ -4716,7 +4710,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>518</v>
       </c>
@@ -4733,7 +4727,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>519</v>
       </c>
@@ -4750,7 +4744,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>520</v>
       </c>
@@ -4767,7 +4761,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>521</v>
       </c>
@@ -4784,7 +4778,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>522</v>
       </c>
@@ -4801,7 +4795,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>523</v>
       </c>
@@ -4818,7 +4812,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>524</v>
       </c>
@@ -4835,7 +4829,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>525</v>
       </c>
@@ -4852,7 +4846,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="187" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:5" ht="187" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>526</v>
       </c>
@@ -4869,7 +4863,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>527</v>
       </c>
@@ -4886,7 +4880,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>528</v>
       </c>
@@ -4903,7 +4897,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>529</v>
       </c>
@@ -4920,7 +4914,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>530</v>
       </c>
@@ -4937,7 +4931,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>531</v>
       </c>
@@ -4954,7 +4948,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>532</v>
       </c>
@@ -4971,7 +4965,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="153" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:5" ht="153" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>533</v>
       </c>
@@ -4988,7 +4982,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="153" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:5" ht="153" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>534</v>
       </c>
@@ -5005,7 +4999,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>535</v>
       </c>
@@ -5022,7 +5016,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>536</v>
       </c>
@@ -5039,7 +5033,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>537</v>
       </c>
@@ -5056,7 +5050,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>538</v>
       </c>
@@ -5073,7 +5067,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:5" ht="136" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>539</v>
       </c>
@@ -5090,7 +5084,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>540</v>
       </c>
@@ -5107,7 +5101,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>541</v>
       </c>
@@ -5124,7 +5118,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:5" ht="136" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>542</v>
       </c>
@@ -5141,7 +5135,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>543</v>
       </c>
@@ -5158,7 +5152,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>544</v>
       </c>
@@ -5175,7 +5169,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>545</v>
       </c>
@@ -5192,7 +5186,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>546</v>
       </c>
@@ -5209,7 +5203,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>547</v>
       </c>
@@ -5226,7 +5220,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>548</v>
       </c>
@@ -5243,7 +5237,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>549</v>
       </c>
@@ -5260,7 +5254,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>550</v>
       </c>
@@ -5277,7 +5271,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>551</v>
       </c>
@@ -5294,7 +5288,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>552</v>
       </c>
@@ -5308,7 +5302,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>553</v>
       </c>
@@ -5325,7 +5319,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>554</v>
       </c>
@@ -5342,7 +5336,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>555</v>
       </c>
